--- a/biology/Médecine/Kim_Bong-han/Kim_Bong-han.xlsx
+++ b/biology/Médecine/Kim_Bong-han/Kim_Bong-han.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bong-Han Kim (1916-1966) était un chirurgien nord-coréen qui a officié à l'Université de médecine de Pyongyang ainsi qu'à l'Institut Kyung-Rak. Il est notamment connu pour sa découverte du système primo-vasculaire, décrit dans 5 rapports de recherche publiés au début des années 1960[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bong-Han Kim (1916-1966) était un chirurgien nord-coréen qui a officié à l'Université de médecine de Pyongyang ainsi qu'à l'Institut Kyung-Rak. Il est notamment connu pour sa découverte du système primo-vasculaire, décrit dans 5 rapports de recherche publiés au début des années 1960,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bong-Han Kim est né en 1916[3]. Il a décroché son diplôme de médecine à l'université nationale de Séoul en 1946[3]. Après que la Guerre de Corée a éclaté, alors qu'il occupe un poste de physiologiste en Corée du Sud, il a traversé la frontière pour s'établir en Corée du Nord, laissant sa famille derrière lui[4],[5].
-Avant son arrivée en Corée du Nord, B.H. Kim était affilié au parti démocratique coréen[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bong-Han Kim est né en 1916. Il a décroché son diplôme de médecine à l'université nationale de Séoul en 1946. Après que la Guerre de Corée a éclaté, alors qu'il occupe un poste de physiologiste en Corée du Sud, il a traversé la frontière pour s'établir en Corée du Nord, laissant sa famille derrière lui,.
+Avant son arrivée en Corée du Nord, B.H. Kim était affilié au parti démocratique coréen.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Découverte du système primo-vasculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors qu'il était directeur de l'Institut Kyung-Rak en Corée du Nord (de 1962 à 1965), B.H. Kim a publié 5 articles dans le Journal of Jo Sun Medicine à propos de l'acupuncture, du système Kyungrak et de la théorie "Sanal". Ces articles fondent les bases du système primo-vasculaire qui a attiré l’intérêt de la communauté scientifique au début des années 2010[6].
-Le gouvernement nord-coréen a financé les recherches de Kim en lui fournissant une équipe ainsi que divers instruments tels que des microscopes et des traceurs radioactifs, la plupart étant importés d'Europe de l'Est[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors qu'il était directeur de l'Institut Kyung-Rak en Corée du Nord (de 1962 à 1965), B.H. Kim a publié 5 articles dans le Journal of Jo Sun Medicine à propos de l'acupuncture, du système Kyungrak et de la théorie "Sanal". Ces articles fondent les bases du système primo-vasculaire qui a attiré l’intérêt de la communauté scientifique au début des années 2010.
+Le gouvernement nord-coréen a financé les recherches de Kim en lui fournissant une équipe ainsi que divers instruments tels que des microscopes et des traceurs radioactifs, la plupart étant importés d'Europe de l'Est.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Disparition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1966, l'Institut de recherche Kyung-Rak a été fermé. Depuis ce jour, le Dr Kim n'a laissé aucune trace[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1966, l'Institut de recherche Kyung-Rak a été fermé. Depuis ce jour, le Dr Kim n'a laissé aucune trace.
 </t>
         </is>
       </c>
